--- a/G/数据/2016.xlsx
+++ b/G/数据/2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="456">
   <si>
     <t>东方电气</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1464,6 +1464,18 @@
   </si>
   <si>
     <t>净资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒钢宏兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600266</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1846,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1905,179 +1917,179 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.24</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="1">
         <v>21.34</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
         <v>7.47</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="9" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>15.88</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="9" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>14.97</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="5" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="1">
         <v>12.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.99</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="9" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>13.37</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="1">
         <v>12.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>12.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1">
-        <v>21.19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D23" s="1">
         <v>13.63</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.99</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2089,6 +2101,17 @@
       </c>
       <c r="D26" s="1">
         <v>9.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4437,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/G/数据/2016.xlsx
+++ b/G/数据/2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="458">
   <si>
     <t>东方电气</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1476,6 +1476,14 @@
   </si>
   <si>
     <t>600266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方园林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002310</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1858,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2087,30 +2095,41 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+    <row r="24" spans="1:4">
+      <c r="B24" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:4">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>9.66</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:4">
+      <c r="B28" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>1.49</v>
       </c>
     </row>
